--- a/data/trans_orig/FINALB_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CF1DE5-663B-4046-9542-45D2DF348A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF276CA-D48B-4D4A-9EC2-145F5F48850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0B8B663-9157-42B9-BE7E-2A801D277FD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69584687-C407-4C03-BE8D-AF308B56C57D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="226">
   <si>
     <t>Población según la coperación aportada al realizar la entrevista en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -92,643 +92,625 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,48%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCC7E26-AD86-42AA-B545-A7FB110F8076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC39D9-CA86-4089-8377-5C689B7B5B26}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1590,13 +1572,13 @@
         <v>12384</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1605,13 +1587,13 @@
         <v>20633</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1608,13 @@
         <v>49445</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -1641,13 +1623,13 @@
         <v>66415</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -1656,13 +1638,13 @@
         <v>115860</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1659,13 @@
         <v>366189</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>383</v>
@@ -1692,13 +1674,13 @@
         <v>419778</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>641</v>
@@ -1707,13 +1689,13 @@
         <v>785967</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1751,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1787,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1796,13 +1778,13 @@
         <v>817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1811,7 +1793,7 @@
         <v>817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
@@ -1832,13 +1814,13 @@
         <v>8374</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -1847,13 +1829,13 @@
         <v>4415</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -1862,13 +1844,13 @@
         <v>12790</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1865,13 @@
         <v>69684</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -1898,13 +1880,13 @@
         <v>91317</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>222</v>
@@ -1913,13 +1895,13 @@
         <v>161001</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1916,13 @@
         <v>479193</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>690</v>
@@ -1949,13 +1931,13 @@
         <v>486927</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>1152</v>
@@ -1964,13 +1946,13 @@
         <v>966120</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2008,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2044,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2092,7 +2074,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>115</v>
@@ -2301,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2331,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,10 +2331,10 @@
         <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2361,13 +2343,13 @@
         <v>11834</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -2376,13 +2358,13 @@
         <v>19377</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2379,13 @@
         <v>112584</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>172</v>
@@ -2412,13 +2394,13 @@
         <v>92270</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>299</v>
@@ -2427,13 +2409,13 @@
         <v>204854</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2430,13 @@
         <v>480031</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>813</v>
@@ -2463,13 +2445,13 @@
         <v>491777</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>1340</v>
@@ -2478,13 +2460,13 @@
         <v>971807</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,7 +2522,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2558,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2567,13 +2549,13 @@
         <v>1659</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2585,10 +2567,10 @@
         <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2585,13 @@
         <v>15108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -2618,13 +2600,13 @@
         <v>21927</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -2633,13 +2615,13 @@
         <v>37035</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,16 +2633,16 @@
         <v>160</v>
       </c>
       <c r="D31" s="7">
-        <v>112626</v>
+        <v>112627</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>340</v>
@@ -2669,13 +2651,13 @@
         <v>173443</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>500</v>
@@ -2684,13 +2666,13 @@
         <v>286069</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,16 +2684,16 @@
         <v>846</v>
       </c>
       <c r="D32" s="7">
-        <v>570020</v>
+        <v>570021</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>1329</v>
@@ -2720,13 +2702,13 @@
         <v>829608</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>2175</v>
@@ -2735,13 +2717,13 @@
         <v>1399629</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2735,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>43</v>
@@ -2815,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -2824,13 +2806,13 @@
         <v>5230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -2839,13 +2821,13 @@
         <v>8548</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2842,13 @@
         <v>47816</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="H35" s="7">
         <v>91</v>
@@ -2875,13 +2857,13 @@
         <v>67171</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="M35" s="7">
         <v>144</v>
@@ -2890,13 +2872,13 @@
         <v>114986</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2893,13 @@
         <v>495946</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>954</v>
@@ -2926,13 +2908,13 @@
         <v>583582</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>1486</v>
@@ -2941,13 +2923,13 @@
         <v>1079528</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2944,13 @@
         <v>2836953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>4310</v>
@@ -2977,13 +2959,13 @@
         <v>3151581</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>7098</v>
@@ -2992,13 +2974,13 @@
         <v>5988535</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3036,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALB_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF276CA-D48B-4D4A-9EC2-145F5F48850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0E4279-A01B-4D9A-9FD6-81E33D26E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69584687-C407-4C03-BE8D-AF308B56C57D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADDC6D55-3379-41A5-97CD-6B04B3160830}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC39D9-CA86-4089-8377-5C689B7B5B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8B8F5C-6EDD-4D07-9F80-D0A556EB1C5B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
